--- a/MetalloproteasesDB.xlsx
+++ b/MetalloproteasesDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saed9\Documents\GitHub\Tarea_DBT845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2C50C-8262-4B58-AAA8-DE9AC02570B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE21C04-371F-4053-AE83-086EC361F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B29C094D-21B3-4F0B-923A-20E08CE7EBF0}"/>
   </bookViews>
@@ -1265,19 +1265,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CB4E81-1C68-4DB7-9B38-6E507AADC9CC}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3248,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92031D39-43EF-42C2-928D-3CFD9CBAE08C}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
